--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785765.51488892</v>
+        <v>3783220.922194636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>109.9645463939863</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>61.57494829067556</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.85131602594505</v>
+        <v>130.4949840230018</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>195.5303993957373</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404937</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425889</v>
+        <v>23.94240680425867</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090866</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074785</v>
+        <v>44.33060630074772</v>
       </c>
       <c r="S6" t="n">
-        <v>57.58207254925922</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>29.43305940535162</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.04608921951332</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.1480668197327</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.64560821255572</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>231.8762019911322</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>20.2769799447059</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976805</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>34.21058558914839</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>111.5512144998722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>126.0773463611706</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659135</v>
+        <v>322.4426321268589</v>
       </c>
       <c r="U2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="V2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="X2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005846</v>
+        <v>133.0228471103741</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810247</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264287</v>
+        <v>336.2349471645398</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264287</v>
+        <v>146.8151621480549</v>
       </c>
       <c r="Y3" t="n">
-        <v>593.2496096204236</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.1899209360063</v>
+        <v>439.66745080971</v>
       </c>
       <c r="C5" t="n">
-        <v>630.2274039955946</v>
+        <v>439.66745080971</v>
       </c>
       <c r="D5" t="n">
-        <v>630.2274039955946</v>
+        <v>439.66745080971</v>
       </c>
       <c r="E5" t="n">
-        <v>244.4391513973504</v>
+        <v>53.87919821146573</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226218</v>
+        <v>46.93369746226226</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017224</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746983</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030774</v>
+        <v>521.2049416030789</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709197</v>
+        <v>823.5081935709218</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582757</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540657</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540657</v>
+        <v>1562.810726301009</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540657</v>
+        <v>1562.810726301009</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540657</v>
+        <v>1309.172761972373</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.655679197086</v>
+        <v>1309.172761972373</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.655679197086</v>
+        <v>1309.172761972373</v>
       </c>
       <c r="X5" t="n">
-        <v>999.1899209360063</v>
+        <v>935.7070037112931</v>
       </c>
       <c r="Y5" t="n">
-        <v>999.1899209360063</v>
+        <v>826.2672908738318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645916</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834645</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
         <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787585</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806074</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189988</v>
+        <v>399.8722171189999</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223515</v>
+        <v>668.6238185223531</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.897120035252</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228324</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1401.10027070378</v>
       </c>
       <c r="S6" t="n">
-        <v>1342.93656105806</v>
+        <v>1258.309378699375</v>
       </c>
       <c r="T6" t="n">
-        <v>1147.395942777815</v>
+        <v>1062.76876041913</v>
       </c>
       <c r="U6" t="n">
-        <v>1147.395942777815</v>
+        <v>834.6536183746867</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.395942777815</v>
+        <v>599.501510142944</v>
       </c>
       <c r="W6" t="n">
-        <v>893.1585860496134</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1585860496134</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>362.0108483422814</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8828666578948</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="D7" t="n">
-        <v>50.76622724555909</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="E7" t="n">
-        <v>50.76622724555909</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574715</v>
+        <v>64.24066662574742</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584125</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347979</v>
+        <v>206.9680378347987</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195376</v>
+        <v>287.8841338195386</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934728</v>
+        <v>342.3101561934741</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858017</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858017</v>
+        <v>252.8894369427505</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858017</v>
+        <v>252.8894369427505</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858017</v>
+        <v>252.8894369427505</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858017</v>
+        <v>252.8894369427505</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858017</v>
+        <v>34.55805631675784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>665.4862413335254</v>
+        <v>588.3049192120716</v>
       </c>
       <c r="C8" t="n">
-        <v>296.5237243931137</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>296.5237243931137</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4805,10 +4805,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634539</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373459</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.086081397647</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4881,16 +4881,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4963,49 +4963,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5072,7 +5072,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143764</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.725617676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
@@ -26326,34 +26326,34 @@
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.3620253144</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231919</v>
+        <v>115410.0540231909</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>2.078908621648413e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.9447285446</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881992</v>
+        <v>62913.63765882018</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197464</v>
+        <v>27875.2536219744</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,16 +26427,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186741</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186734</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26445,19 +26445,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186739</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>76435.73471936834</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489131</v>
+        <v>-126363.5421489125</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466487</v>
+        <v>246883.2059466473</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497145</v>
+        <v>425703.5996497152</v>
       </c>
       <c r="E6" t="n">
-        <v>69575.50125771617</v>
+        <v>69540.76333228059</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319815</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319815</v>
+        <v>670983.970906546</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319811</v>
+        <v>670983.9709065452</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.9709065454</v>
       </c>
       <c r="J6" t="n">
-        <v>621953.7641034368</v>
+        <v>621919.026178001</v>
       </c>
       <c r="K6" t="n">
-        <v>608105.0711731614</v>
+        <v>608070.3332477257</v>
       </c>
       <c r="L6" t="n">
-        <v>643143.4552100067</v>
+        <v>643108.7172845713</v>
       </c>
       <c r="M6" t="n">
-        <v>513872.3282803833</v>
+        <v>513837.5903549473</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319808</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319812</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319811</v>
+        <v>670983.9709065455</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.234738575544338e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950624</v>
+        <v>758.8996292950633</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959472</v>
+        <v>431.975703959473</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821586</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262164</v>
+        <v>94.81103524262085</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>303.1332868360717</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988668</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>189.5943122743548</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>122.8313797513593</v>
+        <v>75.18771175430254</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.2051017684966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410617</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>211.3456463459742</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760029</v>
+        <v>92.85788772760014</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.892622946967</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937509</v>
+        <v>43.32085084937502</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>83.78091053510138</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>222.261923755568</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>129.3749588034179</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304039</v>
+        <v>30.24193919304027</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589143</v>
+        <v>36.91115760589129</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.98957650409531</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.6272835584518</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>150.0541680811296</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660579</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727294</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520278</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511787</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.7030533968111</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610709</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.0343715191501</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860974</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634664</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098735</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898998</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062491</v>
+        <v>56.20152915062498</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.221291647594</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721897</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658094</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468676</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374462</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872497</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947727</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.15475366734541</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635572</v>
+        <v>96.75348224635584</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054724</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830814</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656359</v>
+        <v>0.07464586517656369</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>391.9250669264629</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,22 +32546,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198462</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070472</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811915</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695384</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644799</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974634</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308273</v>
+        <v>207.4834477308278</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890169</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092728</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923155</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437906</v>
+        <v>271.4662640437911</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635343</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930018</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.7328761729195</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872846</v>
+        <v>68.38629016872872</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554503</v>
       </c>
       <c r="L7" t="n">
-        <v>68.575070235015</v>
+        <v>68.57507023501526</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230901</v>
+        <v>75.59399159230927</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761587</v>
+        <v>81.7334302876161</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569217</v>
+        <v>54.97578017569242</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235265</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,7 +35188,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
